--- a/MAQuellenverzeichnis.xlsx
+++ b/MAQuellenverzeichnis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin\git\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E348FC9-9843-4E26-8ED0-7F5018EB7299}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A0AF1-21CA-4EBC-BE98-764889F19663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="5025" windowWidth="15885" windowHeight="11505" xr2:uid="{88CFD653-9A7B-4742-B8E1-5B7D054A43D7}"/>
+    <workbookView xWindow="6000" yWindow="2130" windowWidth="15885" windowHeight="11505" xr2:uid="{88CFD653-9A7B-4742-B8E1-5B7D054A43D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Quellen verzeichnis MA Links" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MAQuellenverzeichnis.xlsx
+++ b/MAQuellenverzeichnis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin\git\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A0AF1-21CA-4EBC-BE98-764889F19663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD121F26-DFCF-49AE-9DCB-556AE4A038F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2130" windowWidth="15885" windowHeight="11505" xr2:uid="{88CFD653-9A7B-4742-B8E1-5B7D054A43D7}"/>
+    <workbookView xWindow="4440" yWindow="1785" windowWidth="15885" windowHeight="11505" xr2:uid="{88CFD653-9A7B-4742-B8E1-5B7D054A43D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Quellen verzeichnis MA Links" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Link</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>https://git-scm.com/book/de/v1/Los-geht%E2%80%99s-Wozu-Versionskontrolle%3F</t>
+  </si>
+  <si>
+    <t>https://www.cardschat.com/poker-hands.php</t>
   </si>
 </sst>
 </file>
@@ -84,9 +87,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95937CC-76DE-4EE8-B22B-A0399AF0F89E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +429,22 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43577</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{16EC0AB7-71AC-4FA0-A499-7B71104E17F6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EF0D47C8-1605-490B-B5DD-7EAAC5C3B479}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
